--- a/backend/tmp/temp.xlsx
+++ b/backend/tmp/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Undergraduate\ChallengeCup\Excelerate\backend\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83222825-51BA-40C0-9E55-22AF65A25C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0986EA-9987-42C7-A8BF-79998D57CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="4110" windowWidth="19200" windowHeight="11170" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
